--- a/natmiOut/OldD7/LR-pairs_lrc2p/Plau-Igf2r.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Plau-Igf2r.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.80776008975</v>
+        <v>32.935331</v>
       </c>
       <c r="H2">
-        <v>20.80776008975</v>
+        <v>98.805993</v>
       </c>
       <c r="I2">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="J2">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.5890183439877</v>
+        <v>18.86633166666667</v>
       </c>
       <c r="N2">
-        <v>18.5890183439877</v>
+        <v>56.598995</v>
       </c>
       <c r="O2">
-        <v>0.1434934505544674</v>
+        <v>0.1413973975846522</v>
       </c>
       <c r="P2">
-        <v>0.1434934505544674</v>
+        <v>0.1413973975846523</v>
       </c>
       <c r="Q2">
-        <v>386.7958340056579</v>
+        <v>621.3688781974483</v>
       </c>
       <c r="R2">
-        <v>386.7958340056579</v>
+        <v>5592.319903777036</v>
       </c>
       <c r="S2">
-        <v>0.01880002948171674</v>
+        <v>0.02596289012246525</v>
       </c>
       <c r="T2">
-        <v>0.01880002948171674</v>
+        <v>0.02596289012246525</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.80776008975</v>
+        <v>32.935331</v>
       </c>
       <c r="H3">
-        <v>20.80776008975</v>
+        <v>98.805993</v>
       </c>
       <c r="I3">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="J3">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>81.43488088349871</v>
+        <v>81.49602766666666</v>
       </c>
       <c r="N3">
-        <v>81.43488088349871</v>
+        <v>244.488083</v>
       </c>
       <c r="O3">
-        <v>0.6286169520750781</v>
+        <v>0.6107878536829223</v>
       </c>
       <c r="P3">
-        <v>0.6286169520750781</v>
+        <v>0.6107878536829223</v>
       </c>
       <c r="Q3">
-        <v>1694.47746436121</v>
+        <v>2684.098646386824</v>
       </c>
       <c r="R3">
-        <v>1694.47746436121</v>
+        <v>24156.88781748142</v>
       </c>
       <c r="S3">
-        <v>0.08235927971662019</v>
+        <v>0.1121507057710329</v>
       </c>
       <c r="T3">
-        <v>0.08235927971662019</v>
+        <v>0.1121507057710329</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.80776008975</v>
+        <v>32.935331</v>
       </c>
       <c r="H4">
-        <v>20.80776008975</v>
+        <v>98.805993</v>
       </c>
       <c r="I4">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="J4">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.73965959122352</v>
+        <v>10.11432133333333</v>
       </c>
       <c r="N4">
-        <v>7.73965959122352</v>
+        <v>30.342964</v>
       </c>
       <c r="O4">
-        <v>0.05974443837271499</v>
+        <v>0.07580375136704795</v>
       </c>
       <c r="P4">
-        <v>0.05974443837271499</v>
+        <v>0.07580375136704795</v>
       </c>
       <c r="Q4">
-        <v>161.0449799505116</v>
+        <v>333.1185209536947</v>
       </c>
       <c r="R4">
-        <v>161.0449799505116</v>
+        <v>2998.066688583252</v>
       </c>
       <c r="S4">
-        <v>0.00782751546105797</v>
+        <v>0.01391881676206298</v>
       </c>
       <c r="T4">
-        <v>0.00782751546105797</v>
+        <v>0.01391881676206298</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.80776008975</v>
+        <v>32.935331</v>
       </c>
       <c r="H5">
-        <v>20.80776008975</v>
+        <v>98.805993</v>
       </c>
       <c r="I5">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="J5">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.7825512801037</v>
+        <v>22.95103433333334</v>
       </c>
       <c r="N5">
-        <v>21.7825512801037</v>
+        <v>68.853103</v>
       </c>
       <c r="O5">
-        <v>0.1681451589977396</v>
+        <v>0.1720109973653774</v>
       </c>
       <c r="P5">
-        <v>0.1681451589977396</v>
+        <v>0.1720109973653775</v>
       </c>
       <c r="Q5">
-        <v>453.2461011790746</v>
+        <v>755.8999125606977</v>
       </c>
       <c r="R5">
-        <v>453.2461011790746</v>
+        <v>6803.099213046279</v>
       </c>
       <c r="S5">
-        <v>0.02202981344549623</v>
+        <v>0.03158405105567302</v>
       </c>
       <c r="T5">
-        <v>0.02202981344549623</v>
+        <v>0.03158405105567303</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>95.4813664971382</v>
+        <v>95.562134</v>
       </c>
       <c r="H6">
-        <v>95.4813664971382</v>
+        <v>286.686402</v>
       </c>
       <c r="I6">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765668</v>
       </c>
       <c r="J6">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765667</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.5890183439877</v>
+        <v>18.86633166666667</v>
       </c>
       <c r="N6">
-        <v>18.5890183439877</v>
+        <v>56.598995</v>
       </c>
       <c r="O6">
-        <v>0.1434934505544674</v>
+        <v>0.1413973975846522</v>
       </c>
       <c r="P6">
-        <v>0.1434934505544674</v>
+        <v>0.1413973975846523</v>
       </c>
       <c r="Q6">
-        <v>1774.904873324315</v>
+        <v>1802.906914818444</v>
       </c>
       <c r="R6">
-        <v>1774.904873324315</v>
+        <v>16226.16223336599</v>
       </c>
       <c r="S6">
-        <v>0.08626841607929969</v>
+        <v>0.07533153940096428</v>
       </c>
       <c r="T6">
-        <v>0.08626841607929969</v>
+        <v>0.07533153940096428</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>95.4813664971382</v>
+        <v>95.562134</v>
       </c>
       <c r="H7">
-        <v>95.4813664971382</v>
+        <v>286.686402</v>
       </c>
       <c r="I7">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765668</v>
       </c>
       <c r="J7">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765667</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>81.43488088349871</v>
+        <v>81.49602766666666</v>
       </c>
       <c r="N7">
-        <v>81.43488088349871</v>
+        <v>244.488083</v>
       </c>
       <c r="O7">
-        <v>0.6286169520750781</v>
+        <v>0.6107878536829223</v>
       </c>
       <c r="P7">
-        <v>0.6286169520750781</v>
+        <v>0.6107878536829223</v>
       </c>
       <c r="Q7">
-        <v>7775.513707288133</v>
+        <v>7787.934316349707</v>
       </c>
       <c r="R7">
-        <v>7775.513707288133</v>
+        <v>70091.40884714737</v>
       </c>
       <c r="S7">
-        <v>0.3779251845054031</v>
+        <v>0.3254061959506653</v>
       </c>
       <c r="T7">
-        <v>0.3779251845054031</v>
+        <v>0.3254061959506652</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>95.4813664971382</v>
+        <v>95.562134</v>
       </c>
       <c r="H8">
-        <v>95.4813664971382</v>
+        <v>286.686402</v>
       </c>
       <c r="I8">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765668</v>
       </c>
       <c r="J8">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765667</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.73965959122352</v>
+        <v>10.11432133333333</v>
       </c>
       <c r="N8">
-        <v>7.73965959122352</v>
+        <v>30.342964</v>
       </c>
       <c r="O8">
-        <v>0.05974443837271499</v>
+        <v>0.07580375136704795</v>
       </c>
       <c r="P8">
-        <v>0.05974443837271499</v>
+        <v>0.07580375136704795</v>
       </c>
       <c r="Q8">
-        <v>738.9932739927037</v>
+        <v>966.5461305750588</v>
       </c>
       <c r="R8">
-        <v>738.9932739927037</v>
+        <v>8698.915175175529</v>
       </c>
       <c r="S8">
-        <v>0.03591842030452165</v>
+        <v>0.04038556140631192</v>
       </c>
       <c r="T8">
-        <v>0.03591842030452165</v>
+        <v>0.04038556140631191</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>95.4813664971382</v>
+        <v>95.562134</v>
       </c>
       <c r="H9">
-        <v>95.4813664971382</v>
+        <v>286.686402</v>
       </c>
       <c r="I9">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765668</v>
       </c>
       <c r="J9">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765667</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.7825512801037</v>
+        <v>22.95103433333334</v>
       </c>
       <c r="N9">
-        <v>21.7825512801037</v>
+        <v>68.853103</v>
       </c>
       <c r="O9">
-        <v>0.1681451589977396</v>
+        <v>0.1720109973653774</v>
       </c>
       <c r="P9">
-        <v>0.1681451589977396</v>
+        <v>0.1720109973653775</v>
       </c>
       <c r="Q9">
-        <v>2079.827762018288</v>
+        <v>2193.249818400601</v>
       </c>
       <c r="R9">
-        <v>2079.827762018288</v>
+        <v>19739.24836560541</v>
       </c>
       <c r="S9">
-        <v>0.1010890495843986</v>
+        <v>0.0916413841186253</v>
       </c>
       <c r="T9">
-        <v>0.1010890495843986</v>
+        <v>0.09164138411862528</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>31.5087816615604</v>
+        <v>37.06916133333333</v>
       </c>
       <c r="H10">
-        <v>31.5087816615604</v>
+        <v>111.207484</v>
       </c>
       <c r="I10">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="J10">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.5890183439877</v>
+        <v>18.86633166666667</v>
       </c>
       <c r="N10">
-        <v>18.5890183439877</v>
+        <v>56.598995</v>
       </c>
       <c r="O10">
-        <v>0.1434934505544674</v>
+        <v>0.1413973975846522</v>
       </c>
       <c r="P10">
-        <v>0.1434934505544674</v>
+        <v>0.1413973975846523</v>
       </c>
       <c r="Q10">
-        <v>585.7173203034495</v>
+        <v>699.3590923198423</v>
       </c>
       <c r="R10">
-        <v>585.7173203034495</v>
+        <v>6294.23183087858</v>
       </c>
       <c r="S10">
-        <v>0.02846851470870781</v>
+        <v>0.02922158464505095</v>
       </c>
       <c r="T10">
-        <v>0.02846851470870781</v>
+        <v>0.02922158464505095</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>31.5087816615604</v>
+        <v>37.06916133333333</v>
       </c>
       <c r="H11">
-        <v>31.5087816615604</v>
+        <v>111.207484</v>
       </c>
       <c r="I11">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="J11">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>81.43488088349871</v>
+        <v>81.49602766666666</v>
       </c>
       <c r="N11">
-        <v>81.43488088349871</v>
+        <v>244.488083</v>
       </c>
       <c r="O11">
-        <v>0.6286169520750781</v>
+        <v>0.6107878536829223</v>
       </c>
       <c r="P11">
-        <v>0.6286169520750781</v>
+        <v>0.6107878536829223</v>
       </c>
       <c r="Q11">
-        <v>2565.91388139334</v>
+        <v>3020.989397601463</v>
       </c>
       <c r="R11">
-        <v>2565.91388139334</v>
+        <v>27188.90457841317</v>
       </c>
       <c r="S11">
-        <v>0.1247150366594574</v>
+        <v>0.1262271390523938</v>
       </c>
       <c r="T11">
-        <v>0.1247150366594574</v>
+        <v>0.1262271390523938</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>31.5087816615604</v>
+        <v>37.06916133333333</v>
       </c>
       <c r="H12">
-        <v>31.5087816615604</v>
+        <v>111.207484</v>
       </c>
       <c r="I12">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="J12">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.73965959122352</v>
+        <v>10.11432133333333</v>
       </c>
       <c r="N12">
-        <v>7.73965959122352</v>
+        <v>30.342964</v>
       </c>
       <c r="O12">
-        <v>0.05974443837271499</v>
+        <v>0.07580375136704795</v>
       </c>
       <c r="P12">
-        <v>0.05974443837271499</v>
+        <v>0.07580375136704795</v>
       </c>
       <c r="Q12">
-        <v>243.8672441946637</v>
+        <v>374.9294092825085</v>
       </c>
       <c r="R12">
-        <v>243.8672441946637</v>
+        <v>3374.364683542576</v>
       </c>
       <c r="S12">
-        <v>0.01185305263762905</v>
+        <v>0.01566581687374014</v>
       </c>
       <c r="T12">
-        <v>0.01185305263762905</v>
+        <v>0.01566581687374014</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>31.5087816615604</v>
+        <v>37.06916133333333</v>
       </c>
       <c r="H13">
-        <v>31.5087816615604</v>
+        <v>111.207484</v>
       </c>
       <c r="I13">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="J13">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.7825512801037</v>
+        <v>22.95103433333334</v>
       </c>
       <c r="N13">
-        <v>21.7825512801037</v>
+        <v>68.853103</v>
       </c>
       <c r="O13">
-        <v>0.1681451589977396</v>
+        <v>0.1720109973653774</v>
       </c>
       <c r="P13">
-        <v>0.1681451589977396</v>
+        <v>0.1720109973653775</v>
       </c>
       <c r="Q13">
-        <v>686.3416523165305</v>
+        <v>850.7755944692059</v>
       </c>
       <c r="R13">
-        <v>686.3416523165305</v>
+        <v>7656.980350222852</v>
       </c>
       <c r="S13">
-        <v>0.03335931301135009</v>
+        <v>0.0355482774453665</v>
       </c>
       <c r="T13">
-        <v>0.03335931301135009</v>
+        <v>0.03554827744536651</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.0197838456764</v>
+        <v>13.80362366666667</v>
       </c>
       <c r="H14">
-        <v>11.0197838456764</v>
+        <v>41.410871</v>
       </c>
       <c r="I14">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564764</v>
       </c>
       <c r="J14">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564763</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.5890183439877</v>
+        <v>18.86633166666667</v>
       </c>
       <c r="N14">
-        <v>18.5890183439877</v>
+        <v>56.598995</v>
       </c>
       <c r="O14">
-        <v>0.1434934505544674</v>
+        <v>0.1413973975846522</v>
       </c>
       <c r="P14">
-        <v>0.1434934505544674</v>
+        <v>0.1413973975846523</v>
       </c>
       <c r="Q14">
-        <v>204.8469640540579</v>
+        <v>260.4237422971828</v>
       </c>
       <c r="R14">
-        <v>204.8469640540579</v>
+        <v>2343.813680674645</v>
       </c>
       <c r="S14">
-        <v>0.009956490284743153</v>
+        <v>0.01088138341617175</v>
       </c>
       <c r="T14">
-        <v>0.009956490284743153</v>
+        <v>0.01088138341617175</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.0197838456764</v>
+        <v>13.80362366666667</v>
       </c>
       <c r="H15">
-        <v>11.0197838456764</v>
+        <v>41.410871</v>
       </c>
       <c r="I15">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564764</v>
       </c>
       <c r="J15">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564763</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>81.43488088349871</v>
+        <v>81.49602766666666</v>
       </c>
       <c r="N15">
-        <v>81.43488088349871</v>
+        <v>244.488083</v>
       </c>
       <c r="O15">
-        <v>0.6286169520750781</v>
+        <v>0.6107878536829223</v>
       </c>
       <c r="P15">
-        <v>0.6286169520750781</v>
+        <v>0.6107878536829223</v>
       </c>
       <c r="Q15">
-        <v>897.3947848345609</v>
+        <v>1124.940496238921</v>
       </c>
       <c r="R15">
-        <v>897.3947848345609</v>
+        <v>10124.46446615029</v>
       </c>
       <c r="S15">
-        <v>0.04361745119359743</v>
+        <v>0.04700381290883033</v>
       </c>
       <c r="T15">
-        <v>0.04361745119359743</v>
+        <v>0.04700381290883032</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.0197838456764</v>
+        <v>13.80362366666667</v>
       </c>
       <c r="H16">
-        <v>11.0197838456764</v>
+        <v>41.410871</v>
       </c>
       <c r="I16">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564764</v>
       </c>
       <c r="J16">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564763</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.73965959122352</v>
+        <v>10.11432133333333</v>
       </c>
       <c r="N16">
-        <v>7.73965959122352</v>
+        <v>30.342964</v>
       </c>
       <c r="O16">
-        <v>0.05974443837271499</v>
+        <v>0.07580375136704795</v>
       </c>
       <c r="P16">
-        <v>0.05974443837271499</v>
+        <v>0.07580375136704795</v>
       </c>
       <c r="Q16">
-        <v>85.28937573439936</v>
+        <v>139.6142853290716</v>
       </c>
       <c r="R16">
-        <v>85.28937573439936</v>
+        <v>1256.528567961644</v>
       </c>
       <c r="S16">
-        <v>0.004145449969506315</v>
+        <v>0.005833556324932918</v>
       </c>
       <c r="T16">
-        <v>0.004145449969506315</v>
+        <v>0.005833556324932918</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.0197838456764</v>
+        <v>13.80362366666667</v>
       </c>
       <c r="H17">
-        <v>11.0197838456764</v>
+        <v>41.410871</v>
       </c>
       <c r="I17">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564764</v>
       </c>
       <c r="J17">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564763</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.7825512801037</v>
+        <v>22.95103433333334</v>
       </c>
       <c r="N17">
-        <v>21.7825512801037</v>
+        <v>68.853103</v>
       </c>
       <c r="O17">
-        <v>0.1681451589977396</v>
+        <v>0.1720109973653774</v>
       </c>
       <c r="P17">
-        <v>0.1681451589977396</v>
+        <v>0.1720109973653775</v>
       </c>
       <c r="Q17">
-        <v>240.0390067141045</v>
+        <v>316.8074406980792</v>
       </c>
       <c r="R17">
-        <v>240.0390067141045</v>
+        <v>2851.266966282713</v>
       </c>
       <c r="S17">
-        <v>0.01166698295649471</v>
+        <v>0.01323728474571264</v>
       </c>
       <c r="T17">
-        <v>0.01166698295649471</v>
+        <v>0.01323728474571264</v>
       </c>
     </row>
   </sheetData>
